--- a/resources/data-imports/Raids/raids.xlsx
+++ b/resources/data-imports/Raids/raids.xlsx
@@ -68,13 +68,13 @@
     <t>The Ice Queens Reign</t>
   </si>
   <si>
-    <t>She awoke in the in the middle of the night, with the snow falling down on her. She looked over, and saw the glass, the smells, the sights. She saw the blood, her husband, hanging upside down. She Screamed. “She never ascended from her own pain. She became trapped in her own memories. So much so that she is blind to her own son, who stands before her begging her to see him. But she never will.” “Now she rules a frozen waste land of memories and grief. She is the corruption of her own memories.”</t>
+    <t>She awoke in the middle of the night. The snow fell upon the ground as her eyes adjusted to the darkness. She could see that she was upside down. The SUV her and her husband were driving had lost control on the snow filled roads. She looked over to see her husband, also upside down – alas he was dead. That’s when it hit her, She was alone – completely and utterly alone. Her son committed suicide a year before, and now her husband was dead. “Hello there” comes a voice. She looks over to see feet, a moment later she is standing beside the man, wearing a fedora. “I am The Poet, You must be Isabella” the man states. “My son, Have you seen my son?” She asks. It was all she could mutter as the snow fell in the darkness of the night.</t>
   </si>
   <si>
     <t>The Ice Queen</t>
   </si>
   <si>
-    <t>Corrupted Ice Mage,Queens Knight of the Ice Rose,Lost Memory of Her Son,Haunting Snowman,Living Ice sickle ,Rabid Reindeer,Frozen King Krampus</t>
+    <t>Corrupted Ice Mage,Queens Knight of the Ice Rose,Lost Memory of Her Son,Haunting Snowman,Living Ice sickle,Rabid Reindeer,Frozen King Krampus</t>
   </si>
   <si>
     <t>Fathers Tomb</t>
@@ -435,9 +435,9 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="28.136" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="843.366" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="869.359" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="28.136" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="168.53" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="167.388" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="25.851" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="98.976" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="31.707" bestFit="true" customWidth="true" style="0"/>

--- a/resources/data-imports/Raids/raids.xlsx
+++ b/resources/data-imports/Raids/raids.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -87,6 +87,30 @@
   </si>
   <si>
     <t>Ancestral Witches Ice Bracelet</t>
+  </si>
+  <si>
+    <t>The Jester of Time</t>
+  </si>
+  <si>
+    <t>He is a Jester of Time. Given the power by his mother, stripped of his attachment to his brother. The world is a game that he plays in. The world is his toy, time is just a manipulation of that toy. With his lover dead, the hands of his soul are covered in blood.</t>
+  </si>
+  <si>
+    <t>Jester of Time</t>
+  </si>
+  <si>
+    <t>Shadow Child of Time,Fated Dream of Tomorrow,Judge of Emotion,Kalitore the Gold Dragon,Faceless Barbarian of Rage,Blind Prophet of The Church,Bloody Bishop of Corrupted Alchemy</t>
+  </si>
+  <si>
+    <t>Southren Port</t>
+  </si>
+  <si>
+    <t>Northren Port,Southren Port,Federation City</t>
+  </si>
+  <si>
+    <t>Delusional Silver</t>
+  </si>
+  <si>
+    <t>Emerald Laced Bow</t>
   </si>
 </sst>
 </file>
@@ -426,7 +450,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,7 +461,7 @@
     <col min="1" max="1" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="869.359" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="28.136" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="167.388" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="208.663" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="25.851" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="98.976" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="31.707" bestFit="true" customWidth="true" style="0"/>
@@ -520,6 +544,32 @@
       </c>
       <c r="H3" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/Raids/raids.xlsx
+++ b/resources/data-imports/Raids/raids.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -23,6 +23,9 @@
     <t>story</t>
   </si>
   <si>
+    <t>raid_type</t>
+  </si>
+  <si>
     <t>raid_boss_id</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
     <t>Long before the merchants arrived at smugglers port, the place was run by pirates and escaped convicts. They kept the caves full of stolen goods, alcohol and gold. It wasn't until roughly around 100 years ago that the merchants had come through via the sea and waged a war with the smugglers and bandits of the area. There was a small period of peace with the bandits of the area for about 25 years, but it wasn't until recently when the merchants decided they wanted the port. The night the merchants came, was the night the moon was covered in blood. Now the son of a pirate lord who wonders the lands has come back to Smugglers Port to take back the port and other ports of the area. He is Rutheless and deadly.</t>
   </si>
   <si>
+    <t>pirate-lord</t>
+  </si>
+  <si>
     <t>Son of the Pirate Lords</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
     <t>She awoke in the middle of the night. The snow fell upon the ground as her eyes adjusted to the darkness. She could see that she was upside down. The SUV her and her husband were driving had lost control on the snow filled roads. She looked over to see her husband, also upside down – alas he was dead. That’s when it hit her, She was alone – completely and utterly alone. Her son committed suicide a year before, and now her husband was dead. “Hello there” comes a voice. She looks over to see feet, a moment later she is standing beside the man, wearing a fedora. “I am The Poet, You must be Isabella” the man states. “My son, Have you seen my son?” She asks. It was all she could mutter as the snow fell in the darkness of the night.</t>
   </si>
   <si>
+    <t>ice-queen</t>
+  </si>
+  <si>
     <t>The Ice Queen</t>
   </si>
   <si>
@@ -93,6 +102,9 @@
   </si>
   <si>
     <t>He is a Jester of Time. Given the power by his mother, stripped of his attachment to his brother. The world is a game that he plays in. The world is his toy, time is just a manipulation of that toy. With his lover dead, the hands of his soul are covered in blood.</t>
+  </si>
+  <si>
+    <t>jester-of-time</t>
   </si>
   <si>
     <t>Jester of Time</t>
@@ -450,7 +462,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,15 +472,16 @@
   <cols>
     <col min="1" max="1" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="869.359" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="28.136" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="208.663" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="25.851" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="98.976" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="31.707" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="47.131" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="208.663" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="98.976" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="31.707" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="47.131" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,83 +506,95 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/Raids/raids.xlsx
+++ b/resources/data-imports/Raids/raids.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -123,6 +123,27 @@
   </si>
   <si>
     <t>Emerald Laced Bow</t>
+  </si>
+  <si>
+    <t>The Frozen King</t>
+  </si>
+  <si>
+    <t>He sits alone in a place desolate and unwanted. He weeps over his beloved wife. He weeps over his beloved son. Nothing can silence the pain and the sorrow in his now frozen heart. He rules over the ruins of the old Christmas Tree Lot. He calls out to the creatures of ice. He seeks her, he seeks him. His rage cannot be quenched.</t>
+  </si>
+  <si>
+    <t>frozen-king</t>
+  </si>
+  <si>
+    <t>Frozen Child of Fear,Corrupted Christmas Tree,Wailing Banshee of Ice,Bloody Snowman of rage,Faithless Prince of the Snow Garden,Zombified Cat of Yesterday,Faithless Priest of The Old Church</t>
+  </si>
+  <si>
+    <t>Forgotten Christmas Tree Lot</t>
+  </si>
+  <si>
+    <t>Dilapidated House of the Drunk,Forgotten Christmas Tree Lot,Banshee Fields of Tomorrow,Ice Pirates Hideout</t>
+  </si>
+  <si>
+    <t>Ancestral Soldiers Statue</t>
   </si>
 </sst>
 </file>
@@ -462,7 +483,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,9 +495,9 @@
     <col min="2" max="2" width="869.359" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="28.136" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="208.663" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="25.851" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="98.976" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="224.088" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="34.135" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="126.112" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="31.707" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="47.131" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -595,6 +616,35 @@
       </c>
       <c r="I4" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/Raids/raids.xlsx
+++ b/resources/data-imports/Raids/raids.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>name</t>
   </si>
@@ -144,6 +144,24 @@
   </si>
   <si>
     <t>Ancestral Soldiers Statue</t>
+  </si>
+  <si>
+    <t>Corrupted Bishop</t>
+  </si>
+  <si>
+    <t>I will convert you godless heathens to the light. I will put down the wicked and bathe in the blood of your children’s screams. You are nothing more then a blight on the soil of the holy lord. My knights march, my priests pray, my clerics heal the wicked. You are a corruption of all that is holy. I shall stomp you in obliteration. You are nothing child. Nothing.</t>
+  </si>
+  <si>
+    <t>corrupted-bishop</t>
+  </si>
+  <si>
+    <t>Delusional Soul Crusher,Demonic Infestation of The Child,Corrupted Priest of The Federation,Shadow Jester of Rage,Dancing Queen of Yesterday,Faithful Cleric o fThe Church,Bloody Knight of Horror</t>
+  </si>
+  <si>
+    <t>Federation Controlled Town</t>
+  </si>
+  <si>
+    <t>Federation Controlled Town,Northren Port,Southren Port,Federation City</t>
   </si>
 </sst>
 </file>
@@ -483,7 +501,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,9 +511,9 @@
   <cols>
     <col min="1" max="1" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="869.359" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="19.995" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="28.136" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="224.088" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="229.944" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="34.135" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="126.112" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="31.707" bestFit="true" customWidth="true" style="0"/>
@@ -644,6 +662,35 @@
         <v>25</v>
       </c>
       <c r="I5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
         <v>42</v>
       </c>
     </row>

--- a/resources/data-imports/Raids/raids.xlsx
+++ b/resources/data-imports/Raids/raids.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -38,6 +38,9 @@
     <t>corrupted_location_ids</t>
   </si>
   <si>
+    <t>scheduled_event_description</t>
+  </si>
+  <si>
     <t>item_specialty_reward_type</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
     <t>Abandoned Village,Ice Dragons Port,Frozen Queens Bank,Fathers Tomb,The Frozen Wreck</t>
   </si>
   <si>
+    <t>Take part in a raid against the queen her self. She looks for her son, she grieves her husband. She is the queen of this realm and her suffering needs to end. Participate in The Ice Queens Reign Raid to earn a cosmetic item through the raid quests, and ancestral item for being the first to defeat her and a full set of Corrupted Ice gear (a more powerful set of gear!) for defeating her! All players are welcome to try their strength against her!</t>
+  </si>
+  <si>
     <t>Corrupted Ice</t>
   </si>
   <si>
@@ -134,13 +140,16 @@
     <t>frozen-king</t>
   </si>
   <si>
-    <t>Frozen Child of Fear,Corrupted Christmas Tree,Wailing Banshee of Ice,Bloody Snowman of rage,Faithless Prince of the Snow Garden,Zombified Cat of Yesterday,Faithless Priest of The Old Church</t>
+    <t>Faithless Priest of The Old Church,Zombified Cat of Yesterday,Faithless Prince of the Snow Garden,Bloody Snowman of rage,Wailing Banshee of Ice,Corrupted Christmas Tree,Frozen Child of Fear</t>
   </si>
   <si>
     <t>Forgotten Christmas Tree Lot</t>
   </si>
   <si>
     <t>Dilapidated House of the Drunk,Forgotten Christmas Tree Lot,Banshee Fields of Tomorrow,Ice Pirates Hideout</t>
+  </si>
+  <si>
+    <t>The king seeks his son, but he cries out for his wife. His is created of corrupted tears and failed magics. Take him down to earn an ancestral item (as the first person to kill him) and a full set of Corrupted Ice gear (a more powerful set of gear) as well! try your strength against him, regardless of your level!.</t>
   </si>
   <si>
     <t>Ancestral Soldiers Statue</t>
@@ -501,7 +510,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,11 +525,12 @@
     <col min="5" max="5" width="229.944" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="34.135" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="126.112" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="31.707" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="47.131" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="528.442" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="31.707" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="47.131" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,150 +558,159 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
         <v>16</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
       </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
+      <c r="J5" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="J6" t="s">
         <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/Raids/raids.xlsx
+++ b/resources/data-imports/Raids/raids.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -125,6 +125,9 @@
     <t>Northren Port,Southren Port,Federation City</t>
   </si>
   <si>
+    <t>A crazed man filled with grief, pain and delsuional memories. Take down the Jester and get your self an ancestral item, an item of power. Bring peace to a corrupted land, or what little peace you can.</t>
+  </si>
+  <si>
     <t>Delusional Silver</t>
   </si>
   <si>
@@ -171,6 +174,9 @@
   </si>
   <si>
     <t>Federation Controlled Town,Northren Port,Southren Port,Federation City</t>
+  </si>
+  <si>
+    <t>The corrupted bishop has no love for those who he considers godless heathens. He will stomp you into oblivion and bring you befor ethe light of god to be judged. Take him down and earn an epic Ancestial Item!</t>
   </si>
 </sst>
 </file>
@@ -645,72 +651,78 @@
       <c r="G4" t="s">
         <v>35</v>
       </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
         <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/Raids/raids.xlsx
+++ b/resources/data-imports/Raids/raids.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>name</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>The corrupted bishop has no love for those who he considers godless heathens. He will stomp you into oblivion and bring you befor ethe light of god to be judged. Take him down and earn an epic Ancestial Item!</t>
+  </si>
+  <si>
+    <t>Ancestral Fang of Delusional Thougts</t>
   </si>
 </sst>
 </file>
@@ -722,7 +725,7 @@
         <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/Raids/raids.xlsx
+++ b/resources/data-imports/Raids/raids.xlsx
@@ -167,13 +167,13 @@
     <t>corrupted-bishop</t>
   </si>
   <si>
-    <t>Delusional Soul Crusher,Demonic Infestation of The Child,Corrupted Priest of The Federation,Shadow Jester of Rage,Dancing Queen of Yesterday,Faithful Cleric o fThe Church,Bloody Knight of Horror</t>
+    <t>Shadow Child of Time,Fated Dream of Tomorrow,Judge of Emotion,Kalitore the Gold Dragon,Faceless Barbarian of Rage,Blind Prophet of The Church,Bloody Bishop of Corrupted Alchemy,Delusional Soul Crusher,Demonic Infestation of The Child,Corrupted Priest of The Federation,Shadow Jester of Rage,Dancing Queen of Yesterday,Faithful Cleric o fThe Church,Bloody Knight of Horror,Faithful Cleric of The Church</t>
   </si>
   <si>
     <t>Federation Controlled Town</t>
   </si>
   <si>
-    <t>Federation Controlled Town,Northren Port,Southren Port,Federation City</t>
+    <t>Federation Controlled Town,Northren Port,Southren Port,Federation City,Alchemcially corrupted graveyard</t>
   </si>
   <si>
     <t>The corrupted bishop has no love for those who he considers godless heathens. He will stomp you into oblivion and bring you befor ethe light of god to be judged. Take him down and earn an epic Ancestial Item!</t>
@@ -531,7 +531,7 @@
     <col min="2" max="2" width="869.359" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="19.995" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="28.136" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="229.944" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="474.17" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="34.135" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="126.112" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="528.442" bestFit="true" customWidth="true" style="0"/>

--- a/resources/data-imports/Raids/raids.xlsx
+++ b/resources/data-imports/Raids/raids.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -180,6 +180,36 @@
   </si>
   <si>
     <t>Ancestral Fang of Delusional Thougts</t>
+  </si>
+  <si>
+    <t>The Labyrinth Monster</t>
+  </si>
+  <si>
+    <t>She dances, dressed in white lace and silk. He holds her close, handsome, a prince at her side. They dance in the crowded ball room. She appears, chanting and with magical rage. The Witch plaxces the curse, he screams and roars and the women in white begins to scream. The little girl watches from the shadows as the world burns around her.</t>
+  </si>
+  <si>
+    <t>enraged-little-girl</t>
+  </si>
+  <si>
+    <t>Enraged and Corrupted Little Girl</t>
+  </si>
+  <si>
+    <t>Wolves of the labyrinth,Haunted Maiden in the Maze,Lost child of heartbreak,Labyrinth Monk,Fettered Maiden of Deception,Thieves of Galitonore,Cultist of tomorrow,Scholar of corrupted Alchemy,Cursed Minotaur,Witch of the abyss,Bard of lost songs,Corrupted and vengeful memory,Reaper of the maze,Chains of the walls</t>
+  </si>
+  <si>
+    <t>Minotar Port</t>
+  </si>
+  <si>
+    <t>Travelers Port,Minotar Port,Town Of Sorrow,Golden Halls</t>
+  </si>
+  <si>
+    <t>The Labyrinth Monster Raid brings about the story of The Little Girl who's mother and father were cursed by an evil witch. Although not everything is as it would seem. Whats mysteries will you unlock as you progress through the story line to take on the Raid Boss?</t>
+  </si>
+  <si>
+    <t>Labyrinth Cloth</t>
+  </si>
+  <si>
+    <t>Blacksmiths Anvil</t>
   </si>
 </sst>
 </file>
@@ -519,7 +549,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,8 +559,8 @@
   <cols>
     <col min="1" max="1" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="869.359" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="19.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="23.423" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="39.99" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="474.17" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="34.135" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="126.112" bestFit="true" customWidth="true" style="0"/>
@@ -726,6 +756,38 @@
       </c>
       <c r="J6" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/Raids/raids.xlsx
+++ b/resources/data-imports/Raids/raids.xlsx
@@ -185,7 +185,7 @@
     <t>The Labyrinth Monster</t>
   </si>
   <si>
-    <t>She dances, dressed in white lace and silk. He holds her close, handsome, a prince at her side. They dance in the crowded ball room. She appears, chanting and with magical rage. The Witch plaxces the curse, he screams and roars and the women in white begins to scream. The little girl watches from the shadows as the world burns around her.</t>
+    <t>She dances, dressed in white lace and silk. He holds her close, handsome, a prince at her side. They dance in the crowded ball room. She appears, chanting and with magical rage. The Witch places the curse, he screams and roars and the woman in white begins to scream. The little girl watches from the shadows as the world burns around her.</t>
   </si>
   <si>
     <t>enraged-little-girl</t>
